--- a/4_Sem/Data management/lab_3/данные в таблички.xlsx
+++ b/4_Sem/Data management/lab_3/данные в таблички.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SevSU_IS\4_Sem\Data management\lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CC093-ACDE-404E-8479-A5D3F22258CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C7FD08-72C3-48AB-B738-8326E8E25F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="3420" windowWidth="17985" windowHeight="13185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3615" windowWidth="29040" windowHeight="15345" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сompany" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Room_type" sheetId="3" r:id="rId3"/>
     <sheet name="Telephone" sheetId="4" r:id="rId4"/>
     <sheet name="Counterparty" sheetId="5" r:id="rId5"/>
+    <sheet name="Сompany (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Room (2)" sheetId="8" r:id="rId7"/>
+    <sheet name="Room_type (2)" sheetId="9" r:id="rId8"/>
+    <sheet name="Telephone (2)" sheetId="10" r:id="rId9"/>
+    <sheet name="Counterparty (2)" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>Tasty_cookies</t>
   </si>
@@ -162,6 +167,81 @@
   </si>
   <si>
     <t>+7 (990) 670-11-83</t>
+  </si>
+  <si>
+    <t>Couloir</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Electrical panel</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Technical underground</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Kopylov M. A.</t>
+  </si>
+  <si>
+    <t>Smirnova A.V.</t>
+  </si>
+  <si>
+    <t>Voronin A. M.</t>
+  </si>
+  <si>
+    <t>Kovaleva V. M.</t>
+  </si>
+  <si>
+    <t>564813, Volgograd region, Podolsk city, Gagarin Boulevard, 45</t>
+  </si>
+  <si>
+    <t>668649, Irkutsk region, Shatura city, Ladygina highway, 88</t>
+  </si>
+  <si>
+    <t>870307, Smolensk region, Stupino city, Budapest Boulevard, 15</t>
+  </si>
+  <si>
+    <t>564813, Volgograd region, Podolsk city, Gagarin Boulevard, 46</t>
+  </si>
+  <si>
+    <t>564813, Volgograd region, Podolsk city, Gagarin Boulevard, 47</t>
+  </si>
+  <si>
+    <t>564813, Volgograd region, Podolsk city, Gagarin Boulevard, 48</t>
+  </si>
+  <si>
+    <t>602059, Budapest Ave., Chekhov, Nizhny Novgorod region 62</t>
+  </si>
+  <si>
+    <t>870307, Smolensk region, Stupino city, Budapest Boulevard, 16</t>
+  </si>
+  <si>
+    <t>870307, Smolensk region, Stupino city, Budapest Boulevard, 17</t>
+  </si>
+  <si>
+    <t>602059, Budapest Ave., Chekhov, Nizhny Novgorod region 63</t>
+  </si>
+  <si>
+    <t>602059, Budapest Ave., Chekhov, Nizhny Novgorod region 64</t>
+  </si>
+  <si>
+    <t>602059, Budapest Ave., Chekhov, Nizhny Novgorod region 65</t>
+  </si>
+  <si>
+    <t>668649, Irkutsk region, Shatura city, Ladygina highway, 89</t>
+  </si>
+  <si>
+    <t>668649, Irkutsk region, Shatura city, Ladygina highway, 90</t>
   </si>
 </sst>
 </file>
@@ -488,7 +568,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,11 +654,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5082B88E-8A30-4E18-B52E-387FDF7E6478}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>280040223</v>
+      </c>
+      <c r="B1">
+        <v>74792076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>317286530</v>
+      </c>
+      <c r="B2">
+        <v>74792076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>447095648</v>
+      </c>
+      <c r="B3">
+        <v>74792076</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4849AE36-947B-496F-B1E6-E903746E8631}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -793,7 +915,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,4 +1202,562 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E956A0-982E-4221-A349-BD4205581B7F}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>280040223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1">
+        <v>5.0607076300000002E+19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>74792076</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>4.0871040099999998E+19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>317286530</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>4.07790364E+19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>447095648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>5.0105375699999998E+19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5D68A-4E0D-4085-B541-F783A5A7BE28}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1">
+        <v>280040223</v>
+      </c>
+      <c r="C1">
+        <v>159</v>
+      </c>
+      <c r="D1">
+        <v>2983562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>280040223</v>
+      </c>
+      <c r="C2">
+        <v>247</v>
+      </c>
+      <c r="D2">
+        <v>7323131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>280040223</v>
+      </c>
+      <c r="C3">
+        <v>157</v>
+      </c>
+      <c r="D3">
+        <v>8897460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>280040223</v>
+      </c>
+      <c r="C4">
+        <v>245</v>
+      </c>
+      <c r="D4">
+        <v>5442937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>74792076</v>
+      </c>
+      <c r="C5">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>1473798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>74792076</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>8897460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>74792076</v>
+      </c>
+      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>9077519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>317286530</v>
+      </c>
+      <c r="C8">
+        <v>183</v>
+      </c>
+      <c r="D8">
+        <v>3563600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>317286530</v>
+      </c>
+      <c r="C9">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>7323131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>317286530</v>
+      </c>
+      <c r="C10">
+        <v>296</v>
+      </c>
+      <c r="D10">
+        <v>7323131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>317286530</v>
+      </c>
+      <c r="C11">
+        <v>257</v>
+      </c>
+      <c r="D11">
+        <v>3563600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>447095648</v>
+      </c>
+      <c r="C12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>447095648</v>
+      </c>
+      <c r="C13">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>9077519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>447095648</v>
+      </c>
+      <c r="C14">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>7323131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75539A4C-94BB-4F9C-8F9E-2312863DB482}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2983562</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2916324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8897460</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5442937</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1473798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6276751</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9077519</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3563600</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7323131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA9765D-F9F9-4C0B-9BC0-1D16F7A5B03B}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1">
+        <v>280040223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>280040223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>280040223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>280040223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>74792076</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>74792076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>74792076</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>317286530</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>317286530</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>317286530</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>317286530</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>447095648</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>447095648</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>447095648</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>